--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Jag1-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Jag1-Notch2.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.936685333333333</v>
+        <v>14.47581233333333</v>
       </c>
       <c r="H2">
-        <v>26.810056</v>
+        <v>43.427437</v>
       </c>
       <c r="I2">
-        <v>0.1887330597209498</v>
+        <v>0.2264097534340379</v>
       </c>
       <c r="J2">
-        <v>0.1887330597209498</v>
+        <v>0.2264097534340379</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.217312</v>
+        <v>3.010057666666667</v>
       </c>
       <c r="N2">
-        <v>3.651936000000001</v>
+        <v>9.030173</v>
       </c>
       <c r="O2">
-        <v>0.00511250363603795</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="P2">
-        <v>0.005112503636037949</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="Q2">
-        <v>10.87873429649067</v>
+        <v>43.57302989517788</v>
       </c>
       <c r="R2">
-        <v>97.90860866841601</v>
+        <v>392.157269056601</v>
       </c>
       <c r="S2">
-        <v>0.0009648984540639232</v>
+        <v>0.002994651611928462</v>
       </c>
       <c r="T2">
-        <v>0.0009648984540639232</v>
+        <v>0.002994651611928462</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.936685333333333</v>
+        <v>14.47581233333333</v>
       </c>
       <c r="H3">
-        <v>26.810056</v>
+        <v>43.427437</v>
       </c>
       <c r="I3">
-        <v>0.1887330597209498</v>
+        <v>0.2264097534340379</v>
       </c>
       <c r="J3">
-        <v>0.1887330597209498</v>
+        <v>0.2264097534340379</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>55.904827</v>
       </c>
       <c r="O3">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="P3">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="Q3">
-        <v>166.5346158378124</v>
+        <v>269.7559280598221</v>
       </c>
       <c r="R3">
-        <v>1498.811542540312</v>
+        <v>2427.803352538399</v>
       </c>
       <c r="S3">
-        <v>0.01477092729637405</v>
+        <v>0.01853956511022899</v>
       </c>
       <c r="T3">
-        <v>0.01477092729637405</v>
+        <v>0.01853956511022899</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.936685333333333</v>
+        <v>14.47581233333333</v>
       </c>
       <c r="H4">
-        <v>26.810056</v>
+        <v>43.427437</v>
       </c>
       <c r="I4">
-        <v>0.1887330597209498</v>
+        <v>0.2264097534340379</v>
       </c>
       <c r="J4">
-        <v>0.1887330597209498</v>
+        <v>0.2264097534340379</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>53.13354766666667</v>
+        <v>68.92011666666667</v>
       </c>
       <c r="N4">
-        <v>159.400643</v>
+        <v>206.76035</v>
       </c>
       <c r="O4">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="P4">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="Q4">
-        <v>474.8377961406675</v>
+        <v>997.6746748581055</v>
       </c>
       <c r="R4">
-        <v>4273.540165266008</v>
+        <v>8979.072073722949</v>
       </c>
       <c r="S4">
-        <v>0.04211613621035398</v>
+        <v>0.0685673702386868</v>
       </c>
       <c r="T4">
-        <v>0.04211613621035399</v>
+        <v>0.06856737023868681</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.936685333333333</v>
+        <v>14.47581233333333</v>
       </c>
       <c r="H5">
-        <v>26.810056</v>
+        <v>43.427437</v>
       </c>
       <c r="I5">
-        <v>0.1887330597209498</v>
+        <v>0.2264097534340379</v>
       </c>
       <c r="J5">
-        <v>0.1887330597209498</v>
+        <v>0.2264097534340379</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.81494466666667</v>
+        <v>8.793419333333334</v>
       </c>
       <c r="N5">
-        <v>83.444834</v>
+        <v>26.380258</v>
       </c>
       <c r="O5">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="P5">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="Q5">
-        <v>248.5734080500782</v>
+        <v>127.2918880376384</v>
       </c>
       <c r="R5">
-        <v>2237.160672450704</v>
+        <v>1145.626992338746</v>
       </c>
       <c r="S5">
-        <v>0.02204742671454831</v>
+        <v>0.00874841291997271</v>
       </c>
       <c r="T5">
-        <v>0.02204742671454831</v>
+        <v>0.00874841291997271</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.936685333333333</v>
+        <v>14.47581233333333</v>
       </c>
       <c r="H6">
-        <v>26.810056</v>
+        <v>43.427437</v>
       </c>
       <c r="I6">
-        <v>0.1887330597209498</v>
+        <v>0.2264097534340379</v>
       </c>
       <c r="J6">
-        <v>0.1887330597209498</v>
+        <v>0.2264097534340379</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>84.82882833333333</v>
+        <v>96.58853933333334</v>
       </c>
       <c r="N6">
-        <v>254.486485</v>
+        <v>289.765618</v>
       </c>
       <c r="O6">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="P6">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="Q6">
-        <v>758.0885460103511</v>
+        <v>1398.197568940119</v>
       </c>
       <c r="R6">
-        <v>6822.79691409316</v>
+        <v>12583.77812046107</v>
       </c>
       <c r="S6">
-        <v>0.06723929881483733</v>
+        <v>0.09609418059046566</v>
       </c>
       <c r="T6">
-        <v>0.06723929881483733</v>
+        <v>0.09609418059046568</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.936685333333333</v>
+        <v>14.47581233333333</v>
       </c>
       <c r="H7">
-        <v>26.810056</v>
+        <v>43.427437</v>
       </c>
       <c r="I7">
-        <v>0.1887330597209498</v>
+        <v>0.2264097534340379</v>
       </c>
       <c r="J7">
-        <v>0.1887330597209498</v>
+        <v>0.2264097534340379</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>52.47529233333334</v>
+        <v>31.62744833333333</v>
       </c>
       <c r="N7">
-        <v>157.425877</v>
+        <v>94.882345</v>
       </c>
       <c r="O7">
-        <v>0.2203873147199083</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="P7">
-        <v>0.2203873147199082</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="Q7">
-        <v>468.9551753576791</v>
+        <v>457.8330066555294</v>
       </c>
       <c r="R7">
-        <v>4220.596578219112</v>
+        <v>4120.497059899765</v>
       </c>
       <c r="S7">
-        <v>0.0415943722307722</v>
+        <v>0.03146557296275525</v>
       </c>
       <c r="T7">
-        <v>0.0415943722307722</v>
+        <v>0.03146557296275525</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>35.254778</v>
       </c>
       <c r="I8">
-        <v>0.2481808363892573</v>
+        <v>0.1838014431832978</v>
       </c>
       <c r="J8">
-        <v>0.2481808363892574</v>
+        <v>0.1838014431832978</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.217312</v>
+        <v>3.010057666666667</v>
       </c>
       <c r="N8">
-        <v>3.651936000000001</v>
+        <v>9.030173</v>
       </c>
       <c r="O8">
-        <v>0.00511250363603795</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="P8">
-        <v>0.005112503636037949</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="Q8">
-        <v>14.30535477224534</v>
+        <v>35.37297160184378</v>
       </c>
       <c r="R8">
-        <v>128.748192950208</v>
+        <v>318.356744416594</v>
       </c>
       <c r="S8">
-        <v>0.001268825428435018</v>
+        <v>0.002431084702647317</v>
       </c>
       <c r="T8">
-        <v>0.001268825428435018</v>
+        <v>0.002431084702647317</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>35.254778</v>
       </c>
       <c r="I9">
-        <v>0.2481808363892573</v>
+        <v>0.1838014431832978</v>
       </c>
       <c r="J9">
-        <v>0.2481808363892574</v>
+        <v>0.1838014431832978</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>55.904827</v>
       </c>
       <c r="O9">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="P9">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="Q9">
         <v>218.9902516681562</v>
@@ -1013,10 +1013,10 @@
         <v>1970.912265013406</v>
       </c>
       <c r="S9">
-        <v>0.01942352387058824</v>
+        <v>0.01505058316422562</v>
       </c>
       <c r="T9">
-        <v>0.01942352387058824</v>
+        <v>0.01505058316422562</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>35.254778</v>
       </c>
       <c r="I10">
-        <v>0.2481808363892573</v>
+        <v>0.1838014431832978</v>
       </c>
       <c r="J10">
-        <v>0.2481808363892574</v>
+        <v>0.1838014431832978</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>53.13354766666667</v>
+        <v>68.92011666666667</v>
       </c>
       <c r="N10">
-        <v>159.400643</v>
+        <v>206.76035</v>
       </c>
       <c r="O10">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="P10">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="Q10">
-        <v>624.4038091135837</v>
+        <v>809.9211376058112</v>
       </c>
       <c r="R10">
-        <v>5619.634282022254</v>
+        <v>7289.290238452301</v>
       </c>
       <c r="S10">
-        <v>0.05538201905709526</v>
+        <v>0.05566359847136985</v>
       </c>
       <c r="T10">
-        <v>0.05538201905709527</v>
+        <v>0.05566359847136985</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>35.254778</v>
       </c>
       <c r="I11">
-        <v>0.2481808363892573</v>
+        <v>0.1838014431832978</v>
       </c>
       <c r="J11">
-        <v>0.2481808363892574</v>
+        <v>0.1838014431832978</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>27.81494466666667</v>
+        <v>8.793419333333334</v>
       </c>
       <c r="N11">
-        <v>83.444834</v>
+        <v>26.380258</v>
       </c>
       <c r="O11">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="P11">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="Q11">
-        <v>326.8698997685391</v>
+        <v>103.3366821525249</v>
       </c>
       <c r="R11">
-        <v>2941.829097916852</v>
+        <v>930.0301393727241</v>
       </c>
       <c r="S11">
-        <v>0.0289919996546322</v>
+        <v>0.007102039094454726</v>
       </c>
       <c r="T11">
-        <v>0.0289919996546322</v>
+        <v>0.007102039094454726</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>35.254778</v>
       </c>
       <c r="I12">
-        <v>0.2481808363892573</v>
+        <v>0.1838014431832978</v>
       </c>
       <c r="J12">
-        <v>0.2481808363892574</v>
+        <v>0.1838014431832978</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>84.82882833333333</v>
+        <v>96.58853933333334</v>
       </c>
       <c r="N12">
-        <v>254.486485</v>
+        <v>289.765618</v>
       </c>
       <c r="O12">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="P12">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="Q12">
-        <v>996.8738369639256</v>
+        <v>1135.069170513645</v>
       </c>
       <c r="R12">
-        <v>8971.86453267533</v>
+        <v>10215.62253462281</v>
       </c>
       <c r="S12">
-        <v>0.08841856028173731</v>
+        <v>0.07801010692408065</v>
       </c>
       <c r="T12">
-        <v>0.08841856028173732</v>
+        <v>0.07801010692408065</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>35.254778</v>
       </c>
       <c r="I13">
-        <v>0.2481808363892573</v>
+        <v>0.1838014431832978</v>
       </c>
       <c r="J13">
-        <v>0.2481808363892574</v>
+        <v>0.1838014431832978</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>52.47529233333334</v>
+        <v>31.62744833333333</v>
       </c>
       <c r="N13">
-        <v>157.425877</v>
+        <v>94.882345</v>
       </c>
       <c r="O13">
-        <v>0.2203873147199083</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="P13">
-        <v>0.2203873147199082</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="Q13">
-        <v>616.6682605655897</v>
+        <v>371.6728898993789</v>
       </c>
       <c r="R13">
-        <v>5550.014345090307</v>
+        <v>3345.05600909441</v>
       </c>
       <c r="S13">
-        <v>0.05469590809676932</v>
+        <v>0.02554403082651962</v>
       </c>
       <c r="T13">
-        <v>0.05469590809676932</v>
+        <v>0.02554403082651962</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.874993333333333</v>
+        <v>5.002325333333333</v>
       </c>
       <c r="H14">
-        <v>8.624979999999999</v>
+        <v>15.006976</v>
       </c>
       <c r="I14">
-        <v>0.06071672753805502</v>
+        <v>0.07823914950243377</v>
       </c>
       <c r="J14">
-        <v>0.06071672753805503</v>
+        <v>0.07823914950243377</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.217312</v>
+        <v>3.010057666666667</v>
       </c>
       <c r="N14">
-        <v>3.651936000000001</v>
+        <v>9.030173</v>
       </c>
       <c r="O14">
-        <v>0.00511250363603795</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="P14">
-        <v>0.005112503636037949</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="Q14">
-        <v>3.499763884586667</v>
+        <v>15.05728772076089</v>
       </c>
       <c r="R14">
-        <v>31.49787496128</v>
+        <v>135.515589486848</v>
       </c>
       <c r="S14">
-        <v>0.0003104144903066318</v>
+        <v>0.001034844972973462</v>
       </c>
       <c r="T14">
-        <v>0.0003104144903066318</v>
+        <v>0.001034844972973462</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.874993333333333</v>
+        <v>5.002325333333333</v>
       </c>
       <c r="H15">
-        <v>8.624979999999999</v>
+        <v>15.006976</v>
       </c>
       <c r="I15">
-        <v>0.06071672753805502</v>
+        <v>0.07823914950243377</v>
       </c>
       <c r="J15">
-        <v>0.06071672753805503</v>
+        <v>0.07823914950243377</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>55.904827</v>
       </c>
       <c r="O15">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="P15">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="Q15">
-        <v>53.57533497538443</v>
+        <v>93.2180441192391</v>
       </c>
       <c r="R15">
-        <v>482.1780147784599</v>
+        <v>838.9623970731519</v>
       </c>
       <c r="S15">
-        <v>0.004751909228115012</v>
+        <v>0.006406613603737282</v>
       </c>
       <c r="T15">
-        <v>0.004751909228115012</v>
+        <v>0.006406613603737282</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.874993333333333</v>
+        <v>5.002325333333333</v>
       </c>
       <c r="H16">
-        <v>8.624979999999999</v>
+        <v>15.006976</v>
       </c>
       <c r="I16">
-        <v>0.06071672753805502</v>
+        <v>0.07823914950243377</v>
       </c>
       <c r="J16">
-        <v>0.06071672753805503</v>
+        <v>0.07823914950243377</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>53.13354766666667</v>
+        <v>68.92011666666667</v>
       </c>
       <c r="N16">
-        <v>159.400643</v>
+        <v>206.76035</v>
       </c>
       <c r="O16">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="P16">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="Q16">
-        <v>152.7585953180155</v>
+        <v>344.7608455779556</v>
       </c>
       <c r="R16">
-        <v>1374.82735786214</v>
+        <v>3102.8476102016</v>
       </c>
       <c r="S16">
-        <v>0.01354905161300591</v>
+        <v>0.02369444182384254</v>
       </c>
       <c r="T16">
-        <v>0.01354905161300592</v>
+        <v>0.02369444182384254</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.874993333333333</v>
+        <v>5.002325333333333</v>
       </c>
       <c r="H17">
-        <v>8.624979999999999</v>
+        <v>15.006976</v>
       </c>
       <c r="I17">
-        <v>0.06071672753805502</v>
+        <v>0.07823914950243377</v>
       </c>
       <c r="J17">
-        <v>0.06071672753805503</v>
+        <v>0.07823914950243377</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>27.81494466666667</v>
+        <v>8.793419333333334</v>
       </c>
       <c r="N17">
-        <v>83.444834</v>
+        <v>26.380258</v>
       </c>
       <c r="O17">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="P17">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="Q17">
-        <v>79.9677804837022</v>
+        <v>43.98754429775645</v>
       </c>
       <c r="R17">
-        <v>719.7100243533199</v>
+        <v>395.887898679808</v>
       </c>
       <c r="S17">
-        <v>0.007092809297542863</v>
+        <v>0.00302314001924913</v>
       </c>
       <c r="T17">
-        <v>0.007092809297542864</v>
+        <v>0.00302314001924913</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.874993333333333</v>
+        <v>5.002325333333333</v>
       </c>
       <c r="H18">
-        <v>8.624979999999999</v>
+        <v>15.006976</v>
       </c>
       <c r="I18">
-        <v>0.06071672753805502</v>
+        <v>0.07823914950243377</v>
       </c>
       <c r="J18">
-        <v>0.06071672753805503</v>
+        <v>0.07823914950243377</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>84.82882833333333</v>
+        <v>96.58853933333334</v>
       </c>
       <c r="N18">
-        <v>254.486485</v>
+        <v>289.765618</v>
       </c>
       <c r="O18">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="P18">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="Q18">
-        <v>243.8823159328111</v>
+        <v>483.1672972167965</v>
       </c>
       <c r="R18">
-        <v>2194.9408433953</v>
+        <v>4348.505674951169</v>
       </c>
       <c r="S18">
-        <v>0.02163134636839235</v>
+        <v>0.03320672739357803</v>
       </c>
       <c r="T18">
-        <v>0.02163134636839235</v>
+        <v>0.03320672739357803</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.874993333333333</v>
+        <v>5.002325333333333</v>
       </c>
       <c r="H19">
-        <v>8.624979999999999</v>
+        <v>15.006976</v>
       </c>
       <c r="I19">
-        <v>0.06071672753805502</v>
+        <v>0.07823914950243377</v>
       </c>
       <c r="J19">
-        <v>0.06071672753805503</v>
+        <v>0.07823914950243377</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>52.47529233333334</v>
+        <v>31.62744833333333</v>
       </c>
       <c r="N19">
-        <v>157.425877</v>
+        <v>94.882345</v>
       </c>
       <c r="O19">
-        <v>0.2203873147199083</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="P19">
-        <v>0.2203873147199082</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="Q19">
-        <v>150.8661156230511</v>
+        <v>158.2107860265244</v>
       </c>
       <c r="R19">
-        <v>1357.79504060746</v>
+        <v>1423.89707423872</v>
       </c>
       <c r="S19">
-        <v>0.01338119654069225</v>
+        <v>0.01087338168905333</v>
       </c>
       <c r="T19">
-        <v>0.01338119654069225</v>
+        <v>0.01087338168905333</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>16.43173766666667</v>
+        <v>7.937383666666666</v>
       </c>
       <c r="H20">
-        <v>49.295213</v>
+        <v>23.812151</v>
       </c>
       <c r="I20">
-        <v>0.3470204008184817</v>
+        <v>0.1241450937259797</v>
       </c>
       <c r="J20">
-        <v>0.3470204008184817</v>
+        <v>0.1241450937259797</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.217312</v>
+        <v>3.010057666666667</v>
       </c>
       <c r="N20">
-        <v>3.651936000000001</v>
+        <v>9.030173</v>
       </c>
       <c r="O20">
-        <v>0.00511250363603795</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="P20">
-        <v>0.005112503636037949</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="Q20">
-        <v>20.00255144248534</v>
+        <v>23.89198255912478</v>
       </c>
       <c r="R20">
-        <v>180.022962982368</v>
+        <v>215.027843032123</v>
       </c>
       <c r="S20">
-        <v>0.001774143060963834</v>
+        <v>0.001642028664404808</v>
       </c>
       <c r="T20">
-        <v>0.001774143060963834</v>
+        <v>0.001642028664404808</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>16.43173766666667</v>
+        <v>7.937383666666666</v>
       </c>
       <c r="H21">
-        <v>49.295213</v>
+        <v>23.812151</v>
       </c>
       <c r="I21">
-        <v>0.3470204008184817</v>
+        <v>0.1241450937259797</v>
       </c>
       <c r="J21">
-        <v>0.3470204008184817</v>
+        <v>0.1241450937259797</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>55.904827</v>
       </c>
       <c r="O21">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="P21">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="Q21">
-        <v>306.2044838547945</v>
+        <v>147.9126869058752</v>
       </c>
       <c r="R21">
-        <v>2755.840354693151</v>
+        <v>1331.214182152877</v>
       </c>
       <c r="S21">
-        <v>0.02715906327395485</v>
+        <v>0.01016562234329197</v>
       </c>
       <c r="T21">
-        <v>0.02715906327395485</v>
+        <v>0.01016562234329197</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>16.43173766666667</v>
+        <v>7.937383666666666</v>
       </c>
       <c r="H22">
-        <v>49.295213</v>
+        <v>23.812151</v>
       </c>
       <c r="I22">
-        <v>0.3470204008184817</v>
+        <v>0.1241450937259797</v>
       </c>
       <c r="J22">
-        <v>0.3470204008184817</v>
+        <v>0.1241450937259797</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>53.13354766666667</v>
+        <v>68.92011666666667</v>
       </c>
       <c r="N22">
-        <v>159.400643</v>
+        <v>206.76035</v>
       </c>
       <c r="O22">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="P22">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="Q22">
-        <v>873.0765165579954</v>
+        <v>547.0454083347612</v>
       </c>
       <c r="R22">
-        <v>7857.688649021959</v>
+        <v>4923.408675012851</v>
       </c>
       <c r="S22">
-        <v>0.07743825321463008</v>
+        <v>0.03759689004434032</v>
       </c>
       <c r="T22">
-        <v>0.07743825321463009</v>
+        <v>0.03759689004434032</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>16.43173766666667</v>
+        <v>7.937383666666666</v>
       </c>
       <c r="H23">
-        <v>49.295213</v>
+        <v>23.812151</v>
       </c>
       <c r="I23">
-        <v>0.3470204008184817</v>
+        <v>0.1241450937259797</v>
       </c>
       <c r="J23">
-        <v>0.3470204008184817</v>
+        <v>0.1241450937259797</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>27.81494466666667</v>
+        <v>8.793419333333334</v>
       </c>
       <c r="N23">
-        <v>83.444834</v>
+        <v>26.380258</v>
       </c>
       <c r="O23">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="P23">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="Q23">
-        <v>457.0478739755158</v>
+        <v>69.7967429905509</v>
       </c>
       <c r="R23">
-        <v>4113.430865779643</v>
+        <v>628.1706869149581</v>
       </c>
       <c r="S23">
-        <v>0.04053824415717554</v>
+        <v>0.004796933548271363</v>
       </c>
       <c r="T23">
-        <v>0.04053824415717554</v>
+        <v>0.004796933548271364</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>16.43173766666667</v>
+        <v>7.937383666666666</v>
       </c>
       <c r="H24">
-        <v>49.295213</v>
+        <v>23.812151</v>
       </c>
       <c r="I24">
-        <v>0.3470204008184817</v>
+        <v>0.1241450937259797</v>
       </c>
       <c r="J24">
-        <v>0.3470204008184817</v>
+        <v>0.1241450937259797</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>84.82882833333333</v>
+        <v>96.58853933333334</v>
       </c>
       <c r="N24">
-        <v>254.486485</v>
+        <v>289.765618</v>
       </c>
       <c r="O24">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="P24">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="Q24">
-        <v>1393.885053744034</v>
+        <v>766.660294491591</v>
       </c>
       <c r="R24">
-        <v>12544.96548369631</v>
+        <v>6899.942650424318</v>
       </c>
       <c r="S24">
-        <v>0.123631802822346</v>
+        <v>0.0526904025775557</v>
       </c>
       <c r="T24">
-        <v>0.123631802822346</v>
+        <v>0.05269040257755571</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>16.43173766666667</v>
+        <v>7.937383666666666</v>
       </c>
       <c r="H25">
-        <v>49.295213</v>
+        <v>23.812151</v>
       </c>
       <c r="I25">
-        <v>0.3470204008184817</v>
+        <v>0.1241450937259797</v>
       </c>
       <c r="J25">
-        <v>0.3470204008184817</v>
+        <v>0.1241450937259797</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>52.47529233333334</v>
+        <v>31.62744833333333</v>
       </c>
       <c r="N25">
-        <v>157.425877</v>
+        <v>94.882345</v>
       </c>
       <c r="O25">
-        <v>0.2203873147199083</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="P25">
-        <v>0.2203873147199082</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="Q25">
-        <v>862.2602376029779</v>
+        <v>251.0391918193439</v>
       </c>
       <c r="R25">
-        <v>7760.342138426802</v>
+        <v>2259.352726374095</v>
       </c>
       <c r="S25">
-        <v>0.07647889428941143</v>
+        <v>0.01725321654811555</v>
       </c>
       <c r="T25">
-        <v>0.07647889428941144</v>
+        <v>0.01725321654811555</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.755183333333332</v>
+        <v>5.471644666666666</v>
       </c>
       <c r="H26">
-        <v>17.26555</v>
+        <v>16.414934</v>
       </c>
       <c r="I26">
-        <v>0.1215432030155045</v>
+        <v>0.08557956481696133</v>
       </c>
       <c r="J26">
-        <v>0.1215432030155045</v>
+        <v>0.08557956481696134</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.217312</v>
+        <v>3.010057666666667</v>
       </c>
       <c r="N26">
-        <v>3.651936000000001</v>
+        <v>9.030173</v>
       </c>
       <c r="O26">
-        <v>0.00511250363603795</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="P26">
-        <v>0.005112503636037949</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="Q26">
-        <v>7.005853733866666</v>
+        <v>16.46996597817578</v>
       </c>
       <c r="R26">
-        <v>63.0526836048</v>
+        <v>148.229693803582</v>
       </c>
       <c r="S26">
-        <v>0.0006213900673524653</v>
+        <v>0.00113193437049484</v>
       </c>
       <c r="T26">
-        <v>0.0006213900673524653</v>
+        <v>0.00113193437049484</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>5.755183333333332</v>
+        <v>5.471644666666666</v>
       </c>
       <c r="H27">
-        <v>17.26555</v>
+        <v>16.414934</v>
       </c>
       <c r="I27">
-        <v>0.1215432030155045</v>
+        <v>0.08557956481696133</v>
       </c>
       <c r="J27">
-        <v>0.1215432030155045</v>
+        <v>0.08557956481696134</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>55.904827</v>
       </c>
       <c r="O27">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="P27">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="Q27">
-        <v>107.2475095344277</v>
+        <v>101.9637828318242</v>
       </c>
       <c r="R27">
-        <v>965.2275858098499</v>
+        <v>917.6740454864179</v>
       </c>
       <c r="S27">
-        <v>0.009512407724247607</v>
+        <v>0.007007683591207824</v>
       </c>
       <c r="T27">
-        <v>0.009512407724247609</v>
+        <v>0.007007683591207825</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>5.755183333333332</v>
+        <v>5.471644666666666</v>
       </c>
       <c r="H28">
-        <v>17.26555</v>
+        <v>16.414934</v>
       </c>
       <c r="I28">
-        <v>0.1215432030155045</v>
+        <v>0.08557956481696133</v>
       </c>
       <c r="J28">
-        <v>0.1215432030155045</v>
+        <v>0.08557956481696134</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>53.13354766666667</v>
+        <v>68.92011666666667</v>
       </c>
       <c r="N28">
-        <v>159.400643</v>
+        <v>206.76035</v>
       </c>
       <c r="O28">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="P28">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="Q28">
-        <v>305.7933079720722</v>
+        <v>377.1063887852111</v>
       </c>
       <c r="R28">
-        <v>2752.13977174865</v>
+        <v>3393.9574990669</v>
       </c>
       <c r="S28">
-        <v>0.02712259368449947</v>
+        <v>0.02591745990033002</v>
       </c>
       <c r="T28">
-        <v>0.02712259368449947</v>
+        <v>0.02591745990033002</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>5.755183333333332</v>
+        <v>5.471644666666666</v>
       </c>
       <c r="H29">
-        <v>17.26555</v>
+        <v>16.414934</v>
       </c>
       <c r="I29">
-        <v>0.1215432030155045</v>
+        <v>0.08557956481696133</v>
       </c>
       <c r="J29">
-        <v>0.1215432030155045</v>
+        <v>0.08557956481696134</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>27.81494466666667</v>
+        <v>8.793419333333334</v>
       </c>
       <c r="N29">
-        <v>83.444834</v>
+        <v>26.380258</v>
       </c>
       <c r="O29">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="P29">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="Q29">
-        <v>160.0801059631889</v>
+        <v>48.11446599699689</v>
       </c>
       <c r="R29">
-        <v>1440.7209536687</v>
+        <v>433.030193972972</v>
       </c>
       <c r="S29">
-        <v>0.01419843913460567</v>
+        <v>0.00330677172327944</v>
       </c>
       <c r="T29">
-        <v>0.01419843913460567</v>
+        <v>0.00330677172327944</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>5.755183333333332</v>
+        <v>5.471644666666666</v>
       </c>
       <c r="H30">
-        <v>17.26555</v>
+        <v>16.414934</v>
       </c>
       <c r="I30">
-        <v>0.1215432030155045</v>
+        <v>0.08557956481696133</v>
       </c>
       <c r="J30">
-        <v>0.1215432030155045</v>
+        <v>0.08557956481696134</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>84.82882833333333</v>
+        <v>96.58853933333334</v>
       </c>
       <c r="N30">
-        <v>254.486485</v>
+        <v>289.765618</v>
       </c>
       <c r="O30">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="P30">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="Q30">
-        <v>488.2054590101944</v>
+        <v>528.4981661043569</v>
       </c>
       <c r="R30">
-        <v>4393.84913109175</v>
+        <v>4756.483494939212</v>
       </c>
       <c r="S30">
-        <v>0.04330179226975558</v>
+        <v>0.0363221903281231</v>
       </c>
       <c r="T30">
-        <v>0.04330179226975558</v>
+        <v>0.0363221903281231</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>5.755183333333332</v>
+        <v>5.471644666666666</v>
       </c>
       <c r="H31">
-        <v>17.26555</v>
+        <v>16.414934</v>
       </c>
       <c r="I31">
-        <v>0.1215432030155045</v>
+        <v>0.08557956481696133</v>
       </c>
       <c r="J31">
-        <v>0.1215432030155045</v>
+        <v>0.08557956481696134</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>52.47529233333334</v>
+        <v>31.62744833333333</v>
       </c>
       <c r="N31">
-        <v>157.425877</v>
+        <v>94.882345</v>
       </c>
       <c r="O31">
-        <v>0.2203873147199083</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="P31">
-        <v>0.2203873147199082</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="Q31">
-        <v>302.0049278485944</v>
+        <v>173.0541589933589</v>
       </c>
       <c r="R31">
-        <v>2718.04435063735</v>
+        <v>1557.48743094023</v>
       </c>
       <c r="S31">
-        <v>0.02678658013504369</v>
+        <v>0.01189352490352612</v>
       </c>
       <c r="T31">
-        <v>0.02678658013504369</v>
+        <v>0.01189352490352613</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>1.600734666666667</v>
+        <v>19.29758733333334</v>
       </c>
       <c r="H32">
-        <v>4.802204</v>
+        <v>57.892762</v>
       </c>
       <c r="I32">
-        <v>0.03380577251775169</v>
+        <v>0.3018249953372896</v>
       </c>
       <c r="J32">
-        <v>0.03380577251775169</v>
+        <v>0.3018249953372896</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.217312</v>
+        <v>3.010057666666667</v>
       </c>
       <c r="N32">
-        <v>3.651936000000001</v>
+        <v>9.030173</v>
       </c>
       <c r="O32">
-        <v>0.00511250363603795</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="P32">
-        <v>0.005112503636037949</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="Q32">
-        <v>1.948593518549333</v>
+        <v>58.08685070086956</v>
       </c>
       <c r="R32">
-        <v>17.537341666944</v>
+        <v>522.781656307826</v>
       </c>
       <c r="S32">
-        <v>0.0001728321349160773</v>
+        <v>0.003992145634620133</v>
       </c>
       <c r="T32">
-        <v>0.0001728321349160773</v>
+        <v>0.003992145634620133</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1.600734666666667</v>
+        <v>19.29758733333334</v>
       </c>
       <c r="H33">
-        <v>4.802204</v>
+        <v>57.892762</v>
       </c>
       <c r="I33">
-        <v>0.03380577251775169</v>
+        <v>0.3018249953372896</v>
       </c>
       <c r="J33">
-        <v>0.03380577251775169</v>
+        <v>0.3018249953372896</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>55.904827</v>
       </c>
       <c r="O33">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="P33">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="Q33">
-        <v>29.82959820430089</v>
+        <v>359.6094271291304</v>
       </c>
       <c r="R33">
-        <v>268.466383838708</v>
+        <v>3236.484844162174</v>
       </c>
       <c r="S33">
-        <v>0.002645761207897389</v>
+        <v>0.02471494300964597</v>
       </c>
       <c r="T33">
-        <v>0.002645761207897389</v>
+        <v>0.02471494300964597</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>1.600734666666667</v>
+        <v>19.29758733333334</v>
       </c>
       <c r="H34">
-        <v>4.802204</v>
+        <v>57.892762</v>
       </c>
       <c r="I34">
-        <v>0.03380577251775169</v>
+        <v>0.3018249953372896</v>
       </c>
       <c r="J34">
-        <v>0.03380577251775169</v>
+        <v>0.3018249953372896</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>53.13354766666667</v>
+        <v>68.92011666666667</v>
       </c>
       <c r="N34">
-        <v>159.400643</v>
+        <v>206.76035</v>
       </c>
       <c r="O34">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="P34">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="Q34">
-        <v>85.05271171301911</v>
+        <v>1329.991970398522</v>
       </c>
       <c r="R34">
-        <v>765.474405417172</v>
+        <v>11969.9277335867</v>
       </c>
       <c r="S34">
-        <v>0.007543821533752364</v>
+        <v>0.09140660191837199</v>
       </c>
       <c r="T34">
-        <v>0.007543821533752364</v>
+        <v>0.09140660191837199</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1.600734666666667</v>
+        <v>19.29758733333334</v>
       </c>
       <c r="H35">
-        <v>4.802204</v>
+        <v>57.892762</v>
       </c>
       <c r="I35">
-        <v>0.03380577251775169</v>
+        <v>0.3018249953372896</v>
       </c>
       <c r="J35">
-        <v>0.03380577251775169</v>
+        <v>0.3018249953372896</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>27.81494466666667</v>
+        <v>8.793419333333334</v>
       </c>
       <c r="N35">
-        <v>83.444834</v>
+        <v>26.380258</v>
       </c>
       <c r="O35">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="P35">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="Q35">
-        <v>44.52434617934844</v>
+        <v>169.6917775436218</v>
       </c>
       <c r="R35">
-        <v>400.719115614136</v>
+        <v>1527.225997892596</v>
       </c>
       <c r="S35">
-        <v>0.003949124192739871</v>
+        <v>0.01166243789735289</v>
       </c>
       <c r="T35">
-        <v>0.003949124192739871</v>
+        <v>0.01166243789735289</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>1.600734666666667</v>
+        <v>19.29758733333334</v>
       </c>
       <c r="H36">
-        <v>4.802204</v>
+        <v>57.892762</v>
       </c>
       <c r="I36">
-        <v>0.03380577251775169</v>
+        <v>0.3018249953372896</v>
       </c>
       <c r="J36">
-        <v>0.03380577251775169</v>
+        <v>0.3018249953372896</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>84.82882833333333</v>
+        <v>96.58853933333334</v>
       </c>
       <c r="N36">
-        <v>254.486485</v>
+        <v>289.765618</v>
       </c>
       <c r="O36">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="P36">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="Q36">
-        <v>135.7884462458822</v>
+        <v>1863.925773184102</v>
       </c>
       <c r="R36">
-        <v>1222.09601621294</v>
+        <v>16775.33195865692</v>
       </c>
       <c r="S36">
-        <v>0.01204387002122663</v>
+        <v>0.1281023682449611</v>
       </c>
       <c r="T36">
-        <v>0.01204387002122663</v>
+        <v>0.1281023682449611</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>1.600734666666667</v>
+        <v>19.29758733333334</v>
       </c>
       <c r="H37">
-        <v>4.802204</v>
+        <v>57.892762</v>
       </c>
       <c r="I37">
-        <v>0.03380577251775169</v>
+        <v>0.3018249953372896</v>
       </c>
       <c r="J37">
-        <v>0.03380577251775169</v>
+        <v>0.3018249953372896</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>52.47529233333334</v>
+        <v>31.62744833333333</v>
       </c>
       <c r="N37">
-        <v>157.425877</v>
+        <v>94.882345</v>
       </c>
       <c r="O37">
-        <v>0.2203873147199083</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="P37">
-        <v>0.2203873147199082</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="Q37">
-        <v>83.99901958143423</v>
+        <v>610.3334463429878</v>
       </c>
       <c r="R37">
-        <v>755.9911762329081</v>
+        <v>5493.001017086891</v>
       </c>
       <c r="S37">
-        <v>0.007450363427219368</v>
+        <v>0.04194649863233754</v>
       </c>
       <c r="T37">
-        <v>0.007450363427219367</v>
+        <v>0.04194649863233754</v>
       </c>
     </row>
   </sheetData>
